--- a/src/test/resources/AutoTest.xlsx
+++ b/src/test/resources/AutoTest.xlsx
@@ -9,38 +9,39 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="26715" windowHeight="12660" tabRatio="655" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="26715" windowHeight="12660" tabRatio="655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Step" sheetId="18" r:id="rId1"/>
-    <sheet name="Step (2)" sheetId="19" r:id="rId2"/>
-    <sheet name="PDRC_RM" sheetId="1" r:id="rId3"/>
-    <sheet name="PDRC_PM" sheetId="9" r:id="rId4"/>
-    <sheet name="PDRC_ProfileBaseInfo" sheetId="17" r:id="rId5"/>
-    <sheet name="T_MenuInfo" sheetId="16" r:id="rId6"/>
-    <sheet name="T_Users" sheetId="4" r:id="rId7"/>
-    <sheet name="PDRC_TM" sheetId="2" r:id="rId8"/>
-    <sheet name="PDRC_TM_SALARY" sheetId="7" r:id="rId9"/>
-    <sheet name="PDRC_PDM" sheetId="11" r:id="rId10"/>
-    <sheet name="PDRC_PGM" sheetId="10" r:id="rId11"/>
-    <sheet name="PDRC_StaffManage" sheetId="5" r:id="rId12"/>
-    <sheet name="ISBG_Project" sheetId="6" r:id="rId13"/>
-    <sheet name="ISBG_Project_Finish" sheetId="15" r:id="rId14"/>
-    <sheet name="ISBG_HumanMap" sheetId="13" r:id="rId15"/>
-    <sheet name="PDRC_BSM_Dispatch" sheetId="12" r:id="rId16"/>
-    <sheet name="PDRC_B_ENPPRIZE" sheetId="14" r:id="rId17"/>
-    <sheet name="UsersTM_RM" sheetId="8" r:id="rId18"/>
+    <sheet name="evaluate" sheetId="19" r:id="rId2"/>
+    <sheet name="view_evaluate" sheetId="20" r:id="rId3"/>
+    <sheet name="PDRC_RM" sheetId="1" r:id="rId4"/>
+    <sheet name="PDRC_PM" sheetId="9" r:id="rId5"/>
+    <sheet name="PDRC_ProfileBaseInfo" sheetId="17" r:id="rId6"/>
+    <sheet name="T_MenuInfo" sheetId="16" r:id="rId7"/>
+    <sheet name="T_Users" sheetId="4" r:id="rId8"/>
+    <sheet name="PDRC_TM" sheetId="2" r:id="rId9"/>
+    <sheet name="PDRC_TM_SALARY" sheetId="7" r:id="rId10"/>
+    <sheet name="PDRC_PDM" sheetId="11" r:id="rId11"/>
+    <sheet name="PDRC_PGM" sheetId="10" r:id="rId12"/>
+    <sheet name="PDRC_StaffManage" sheetId="5" r:id="rId13"/>
+    <sheet name="ISBG_Project" sheetId="6" r:id="rId14"/>
+    <sheet name="ISBG_Project_Finish" sheetId="15" r:id="rId15"/>
+    <sheet name="ISBG_HumanMap" sheetId="13" r:id="rId16"/>
+    <sheet name="PDRC_BSM_Dispatch" sheetId="12" r:id="rId17"/>
+    <sheet name="PDRC_B_ENPPRIZE" sheetId="14" r:id="rId18"/>
+    <sheet name="UsersTM_RM" sheetId="8" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">PDRC_B_ENPPRIZE!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">PDRC_BSM_Dispatch!$C$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">PDRC_B_ENPPRIZE!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">PDRC_BSM_Dispatch!$C$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="350">
   <si>
     <t>ID</t>
   </si>
@@ -1192,6 +1193,20 @@
   </si>
   <si>
     <t>.//*[@id='select2-drop']/div/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.//*[@id='menulist']/li[3]/a/span[1]</t>
+  </si>
+  <si>
+    <t>我的工作台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.//*[@id='menulist']/li[3]/ul/li[2]/a</t>
+  </si>
+  <si>
+    <t>我的项目评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2129,6 +2144,39 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2163,7 +2211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2218,7 +2266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
@@ -3290,7 +3338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
@@ -3711,7 +3759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -3744,7 +3792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -3796,7 +3844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -3841,7 +3889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -3874,7 +3922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P48"/>
   <sheetViews>
@@ -4834,7 +4882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
@@ -5088,6 +5136,239 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.875" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="30">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="30">
+        <v>14</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="30">
+        <v>15</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="30">
+        <v>16</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="30">
+        <v>17</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="30">
+        <v>18</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="30">
+        <v>19</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="30">
+        <v>20</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="30">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="30">
+        <v>22</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="30">
+        <v>23</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -5121,7 +5402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -5335,7 +5616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -5442,7 +5723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -5607,7 +5888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
@@ -6416,7 +6697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -6481,37 +6762,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>